--- a/PITCH.xlsx
+++ b/PITCH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias Almeida\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elias Almeida\Desktop\BOX - ELIAS\pitches-votacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A071600D-8647-4FDB-BD42-BD3372ADC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6E2AB0-6BB5-4697-9BDA-FF67C0622FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D85F3D2-E0B6-4E6B-AD7C-0F7FA3233E87}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D85F3D2-E0B6-4E6B-AD7C-0F7FA3233E87}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
-  <si>
-    <t>Adrielle</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
   <si>
     <t>Thaynara</t>
   </si>
@@ -240,12 +237,6 @@
   </si>
   <si>
     <t>Inteligência de mercado</t>
-  </si>
-  <si>
-    <t>Heads</t>
-  </si>
-  <si>
-    <t>Como fazer os resultados e impactos do trabalho dos HEADS TRIPLICAR?</t>
   </si>
   <si>
     <t>Apresentador</t>
@@ -650,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A051C13-E47A-46FC-A531-6D95EE0D12FB}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -677,109 +668,109 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -788,143 +779,143 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -933,160 +924,160 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1095,121 +1086,104 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
